--- a/data/excel.xlsx
+++ b/data/excel.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{94F68873-9105-417A-9C66-DA8F493826A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13110" windowHeight="5970"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="13140" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -28,23 +29,29 @@
     <t>Password</t>
   </si>
   <si>
-    <t>mngr26593</t>
-  </si>
-  <si>
-    <t>ishal!12</t>
-  </si>
-  <si>
-    <t>mngr251159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hudUvEn
+    <t>adelai</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>pakishtam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dasdasd
 </t>
+  </si>
+  <si>
+    <t>asdfadf</t>
+  </si>
+  <si>
+    <t>afsfafdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,11 +384,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,9 +422,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="abc@123"/>
+    <hyperlink ref="B2" r:id="rId1" display="abc@123" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
